--- a/季诚/成交客户/苏良军/送货单/送货单.xlsx
+++ b/季诚/成交客户/苏良军/送货单/送货单.xlsx
@@ -92,13 +92,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   ①白联：存根联</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve">           </t>
@@ -115,7 +119,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -147,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -181,7 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,55 +204,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,37 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -300,6 +228,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -326,6 +314,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +336,6 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -346,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,17 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,31 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,6 +671,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -697,10 +699,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,134 +714,134 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,12 +851,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -862,9 +858,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -883,20 +876,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -915,17 +899,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1249,7 +1227,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1302,33 +1280,33 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6">
-        <v>43798</v>
-      </c>
-      <c r="H4" s="7"/>
+      <c r="G4" s="4">
+        <v>43819</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <v>18958505022</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
@@ -1337,104 +1315,104 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" ht="31" customHeight="1" spans="1:8">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:8">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11">
-        <v>100</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="8">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:8">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
         <f>SUM(G8:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="6" customHeight="1" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:8">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2"/>
@@ -1446,98 +1424,98 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:8">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" ht="12" customHeight="1" spans="1:8">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" ht="7" customHeight="1" spans="1:8">
-      <c r="A16" s="27"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="2">
         <v>15858239032</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/季诚/成交客户/苏良军/送货单/送货单.xlsx
+++ b/季诚/成交客户/苏良军/送货单/送货单.xlsx
@@ -150,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -184,6 +184,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -191,14 +221,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,107 +289,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,181 +348,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,6 +618,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -629,15 +644,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,17 +663,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,88 +696,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -786,58 +786,58 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1288,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>43819</v>
+        <v>43467</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1361,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
